--- a/JS.xlsx
+++ b/JS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KYR\Javascript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yulmi\Desktop\Yuriming\Javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CE686-DD5E-4D7E-A9A9-802AEACF4BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="-11616" yWindow="600" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문풀" sheetId="1" r:id="rId1"/>
@@ -18,18 +19,28 @@
     <sheet name="별찍기" sheetId="5" r:id="rId4"/>
     <sheet name="배열" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="237">
   <si>
     <t>회전수 결정조건 : 처음, 끝, 일정한 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,14 +657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n+i-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열의 끝 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(n+1)/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,14 +734,6 @@
   </si>
   <si>
     <t>중간값*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -901,7 +896,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -977,7 +972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,9 +991,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1007,6 +999,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1043,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1085,7 +1092,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1128,7 +1141,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1171,7 +1190,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1214,7 +1239,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1257,7 +1288,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1300,7 +1337,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="직선 화살표 연결선 9"/>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
           <a:endCxn id="7" idx="0"/>
@@ -1350,7 +1393,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="직선 화살표 연결선 10"/>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="2"/>
           <a:endCxn id="7" idx="0"/>
@@ -1400,7 +1449,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="직선 화살표 연결선 14"/>
+        <xdr:cNvPr id="15" name="직선 화살표 연결선 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -1699,24 +1754,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:CX20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="102" max="102" width="10.625" customWidth="1"/>
+    <col min="102" max="102" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2039,7 +2094,7 @@
         <v>6.1305790721611584E+16</v>
       </c>
       <c r="CF4">
-        <f t="shared" ref="CF4:DK4" si="3">CD4+CE4</f>
+        <f t="shared" ref="CF4:CW4" si="3">CD4+CE4</f>
         <v>9.9194853094755488E+16</v>
       </c>
       <c r="CG4">
@@ -2115,7 +2170,7 @@
         <v>9.273726921930792E+20</v>
       </c>
     </row>
-    <row r="5" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +2472,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -2425,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -2433,7 +2488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -2441,22 +2496,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:102" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>1</v>
       </c>
@@ -2473,12 +2528,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>1</v>
       </c>
@@ -2503,16 +2558,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="H18:M23"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
         <v>111</v>
       </c>
@@ -2532,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.4">
       <c r="H19" t="s">
         <v>112</v>
       </c>
@@ -2552,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.4">
       <c r="I21">
         <v>16</v>
       </c>
@@ -2569,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.4">
       <c r="J23" t="s">
         <v>113</v>
       </c>
@@ -2582,22 +2637,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="6.125" customWidth="1"/>
+    <col min="17" max="17" width="6.09765625" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -2609,7 +2664,7 @@
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="P2" t="s">
         <v>143</v>
       </c>
@@ -2620,7 +2675,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2634,10 +2689,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -2646,7 +2701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2664,7 +2719,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2681,7 +2736,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -2717,7 +2772,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>128</v>
       </c>
@@ -2743,7 +2798,7 @@
       </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -2764,7 +2819,7 @@
       </c>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2783,7 +2838,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2808,7 +2863,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2827,7 +2882,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2850,7 +2905,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2873,7 +2928,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2890,7 +2945,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2905,7 +2960,7 @@
       <c r="O17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.4">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2929,7 +2984,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.4">
       <c r="P19" t="s">
         <v>137</v>
       </c>
@@ -2948,26 +3003,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP65"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH52" sqref="AH52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="4.125" customWidth="1"/>
-    <col min="8" max="13" width="4.25" customWidth="1"/>
-    <col min="15" max="20" width="4.375" customWidth="1"/>
-    <col min="21" max="21" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="4.09765625" customWidth="1"/>
+    <col min="8" max="13" width="4.19921875" customWidth="1"/>
+    <col min="15" max="20" width="4.3984375" customWidth="1"/>
+    <col min="21" max="21" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="22" max="27" width="4" customWidth="1"/>
     <col min="28" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -3047,7 +3102,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3121,7 +3176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3187,7 +3242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3245,7 +3300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3303,7 +3358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3359,7 +3414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3439,7 +3494,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -3486,7 +3541,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -3542,7 +3597,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3608,7 +3663,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -3678,7 +3733,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -3750,7 +3805,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3830,7 +3885,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3902,7 +3957,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -3968,7 +4023,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -4032,7 +4087,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -4086,7 +4141,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -4140,7 +4195,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
       <c r="H22" t="s">
         <v>177</v>
       </c>
@@ -4175,7 +4230,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
       <c r="U23" t="s">
         <v>165</v>
       </c>
@@ -4207,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
       <c r="U24" t="s">
         <v>166</v>
       </c>
@@ -4236,7 +4291,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
       <c r="V25" s="3">
         <v>3</v>
       </c>
@@ -4259,7 +4314,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
       <c r="V26" s="3">
         <v>4</v>
       </c>
@@ -4282,7 +4337,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
       <c r="V27" s="3">
         <v>5</v>
       </c>
@@ -4303,7 +4358,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
       <c r="V29" s="4">
         <v>5</v>
       </c>
@@ -4332,7 +4387,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
       <c r="V30" s="3">
         <v>1</v>
       </c>
@@ -4353,7 +4408,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
       <c r="V31" s="3">
         <v>2</v>
       </c>
@@ -4375,7 +4430,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
       <c r="V32" s="3">
         <v>3</v>
       </c>
@@ -4407,7 +4462,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="33" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V33" s="3">
         <v>4</v>
       </c>
@@ -4443,7 +4498,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="34" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V34" s="3">
         <v>5</v>
       </c>
@@ -4481,7 +4536,7 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="35" spans="22:42" x14ac:dyDescent="0.4">
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
@@ -4492,7 +4547,7 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="36" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V36" s="4">
         <v>6</v>
       </c>
@@ -4515,17 +4570,15 @@
         <v>159</v>
       </c>
       <c r="AC36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE36" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AD36" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE36" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF36" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="AF36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
@@ -4536,7 +4589,7 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="37" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V37" s="3">
         <v>1</v>
       </c>
@@ -4559,9 +4612,7 @@
       <c r="AE37" s="2">
         <v>3</v>
       </c>
-      <c r="AF37" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AF37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
@@ -4572,7 +4623,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="38" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V38" s="3">
         <v>2</v>
       </c>
@@ -4608,7 +4659,7 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="39" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V39" s="3">
         <v>3</v>
       </c>
@@ -4649,7 +4700,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="40" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V40" s="3">
         <v>4</v>
       </c>
@@ -4659,10 +4710,10 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AD40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE40" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="AE40" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
@@ -4674,7 +4725,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V41" s="3">
         <v>5</v>
       </c>
@@ -4684,13 +4735,13 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AC41" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD41" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AD41" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="AE41" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
@@ -4702,13 +4753,9 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="22:42" x14ac:dyDescent="0.3">
-      <c r="V42" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="W42" s="2" t="s">
-        <v>201</v>
-      </c>
+    <row r="42" spans="22:42" x14ac:dyDescent="0.4">
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
@@ -4719,7 +4766,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V43" s="4">
         <v>7</v>
       </c>
@@ -4742,13 +4789,13 @@
         <v>176</v>
       </c>
       <c r="AC43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE43" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="AD43" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE43" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="AH43" s="2"/>
       <c r="AJ43" s="2"/>
@@ -4759,7 +4806,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V44" s="3">
         <v>1</v>
       </c>
@@ -4792,7 +4839,7 @@
       </c>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AJ44" s="2"/>
       <c r="AK44" s="2"/>
@@ -4802,7 +4849,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="45" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V45" s="3">
         <v>2</v>
       </c>
@@ -4830,7 +4877,7 @@
       </c>
       <c r="AH45" s="2"/>
       <c r="AI45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
@@ -4840,7 +4887,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="46" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V46" s="3">
         <v>3</v>
       </c>
@@ -4869,7 +4916,7 @@
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
     </row>
-    <row r="47" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="47" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V47" s="3">
         <v>4</v>
       </c>
@@ -4880,10 +4927,10 @@
       <c r="AA47" s="2"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE47" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="AE47" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
@@ -4893,7 +4940,7 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
     </row>
-    <row r="48" spans="22:42" x14ac:dyDescent="0.3">
+    <row r="48" spans="22:42" x14ac:dyDescent="0.4">
       <c r="V48" s="3">
         <v>5</v>
       </c>
@@ -4902,8 +4949,11 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
+      <c r="AC48" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="AD48" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
@@ -4914,7 +4964,7 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
     </row>
-    <row r="49" spans="22:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="22:41" x14ac:dyDescent="0.4">
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
@@ -4923,7 +4973,7 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
     </row>
-    <row r="50" spans="22:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V50" s="4">
         <v>8</v>
       </c>
@@ -4946,22 +4996,25 @@
         <v>159</v>
       </c>
       <c r="AC50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD50" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AD50" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="AE50" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="22:41" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="AI50" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V51" s="3">
         <v>1</v>
       </c>
@@ -4980,23 +5033,23 @@
       <c r="AD51" s="2">
         <v>3</v>
       </c>
-      <c r="AE51" s="6" t="s">
-        <v>205</v>
+      <c r="AE51" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="AF51" s="2">
         <v>3</v>
       </c>
-      <c r="AG51" s="6" t="s">
+      <c r="AG51" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI51" t="s">
         <v>202</v>
       </c>
-      <c r="AI51" t="s">
-        <v>206</v>
-      </c>
       <c r="AK51" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="22:41" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V52" s="3">
         <v>2</v>
       </c>
@@ -5019,19 +5072,19 @@
       <c r="AD52" s="2">
         <v>2</v>
       </c>
-      <c r="AE52" s="6"/>
+      <c r="AE52" s="9"/>
       <c r="AF52" s="2">
         <v>4</v>
       </c>
-      <c r="AG52" s="6"/>
+      <c r="AG52" s="9"/>
       <c r="AI52" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AK52" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="22:41" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V53" s="3">
         <v>3</v>
       </c>
@@ -5059,19 +5112,19 @@
       <c r="AD53" s="2">
         <v>1</v>
       </c>
-      <c r="AE53" s="6"/>
+      <c r="AE53" s="9"/>
       <c r="AF53" s="2">
         <v>5</v>
       </c>
-      <c r="AG53" s="6"/>
+      <c r="AG53" s="9"/>
       <c r="AI53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AK53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="22:41" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V54" s="3">
         <v>4</v>
       </c>
@@ -5095,20 +5148,20 @@
       <c r="AD54" s="2">
         <v>2</v>
       </c>
-      <c r="AE54" s="6" t="s">
-        <v>203</v>
+      <c r="AE54" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="AF54" s="2">
         <v>4</v>
       </c>
-      <c r="AG54" s="6" t="s">
-        <v>204</v>
+      <c r="AG54" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="AK54" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="22:41" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V55" s="3">
         <v>5</v>
       </c>
@@ -5128,13 +5181,13 @@
       <c r="AD55" s="2">
         <v>3</v>
       </c>
-      <c r="AE55" s="6"/>
+      <c r="AE55" s="9"/>
       <c r="AF55" s="2">
         <v>3</v>
       </c>
-      <c r="AG55" s="6"/>
-    </row>
-    <row r="57" spans="22:41" x14ac:dyDescent="0.3">
+      <c r="AG55" s="9"/>
+    </row>
+    <row r="57" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V57" s="4">
         <v>9</v>
       </c>
@@ -5157,63 +5210,66 @@
         <v>146</v>
       </c>
       <c r="AC57" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD57" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AD57" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="AE57" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AF57" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AG57" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI57" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="22:41" x14ac:dyDescent="0.4">
+      <c r="V58" s="3">
+        <v>1</v>
+      </c>
+      <c r="W58" s="2">
+        <v>1</v>
+      </c>
+      <c r="X58" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG58" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="58" spans="22:41" x14ac:dyDescent="0.3">
-      <c r="V58" s="3">
-        <v>1</v>
-      </c>
-      <c r="W58" s="2">
-        <v>1</v>
-      </c>
-      <c r="X58" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y58" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z58" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA58" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="6" t="s">
+      <c r="AI58" t="s">
         <v>212</v>
       </c>
-      <c r="AF58" s="2">
-        <v>5</v>
-      </c>
-      <c r="AG58" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="22:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V59" s="3">
         <v>2</v>
       </c>
@@ -5236,13 +5292,13 @@
       <c r="AD59" s="2">
         <v>2</v>
       </c>
-      <c r="AE59" s="6"/>
+      <c r="AE59" s="9"/>
       <c r="AF59" s="2">
         <v>4</v>
       </c>
-      <c r="AG59" s="6"/>
-    </row>
-    <row r="60" spans="22:41" x14ac:dyDescent="0.3">
+      <c r="AG59" s="9"/>
+    </row>
+    <row r="60" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V60" s="3">
         <v>3</v>
       </c>
@@ -5262,13 +5318,13 @@
       <c r="AD60" s="2">
         <v>3</v>
       </c>
-      <c r="AE60" s="6"/>
+      <c r="AE60" s="9"/>
       <c r="AF60" s="2">
         <v>3</v>
       </c>
-      <c r="AG60" s="6"/>
-    </row>
-    <row r="61" spans="22:41" x14ac:dyDescent="0.3">
+      <c r="AG60" s="9"/>
+    </row>
+    <row r="61" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V61" s="3">
         <v>4</v>
       </c>
@@ -5292,17 +5348,17 @@
       <c r="AD61" s="2">
         <v>2</v>
       </c>
-      <c r="AE61" s="6" t="s">
-        <v>214</v>
+      <c r="AE61" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="AF61" s="2">
         <v>4</v>
       </c>
-      <c r="AG61" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="62" spans="22:41" x14ac:dyDescent="0.3">
+      <c r="AG61" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="22:41" x14ac:dyDescent="0.4">
       <c r="V62" s="3">
         <v>5</v>
       </c>
@@ -5330,13 +5386,13 @@
       <c r="AD62" s="2">
         <v>1</v>
       </c>
-      <c r="AE62" s="6"/>
+      <c r="AE62" s="9"/>
       <c r="AF62" s="2">
         <v>5</v>
       </c>
-      <c r="AG62" s="6"/>
-    </row>
-    <row r="65" spans="28:29" x14ac:dyDescent="0.3">
+      <c r="AG62" s="9"/>
+    </row>
+    <row r="65" spans="28:29" x14ac:dyDescent="0.4">
       <c r="AB65"/>
       <c r="AC65"/>
     </row>
@@ -5358,176 +5414,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="6" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="2" max="6" width="4.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>223</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B8" s="7"/>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D12" s="7"/>
+      <c r="J12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E14" s="7"/>
+      <c r="J14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F16" s="7"/>
+      <c r="J16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>218</v>
       </c>
-      <c r="J5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="E8" t="s">
-        <v>238</v>
-      </c>
-      <c r="J8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>239</v>
-      </c>
-      <c r="J9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="8"/>
-      <c r="J12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E14" s="8"/>
-      <c r="J14" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="7">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="J16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J19" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J24" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/JS.xlsx
+++ b/JS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yulmi\Desktop\Yuriming\Javascript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KYR\Javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CE686-DD5E-4D7E-A9A9-802AEACF4BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11616" yWindow="600" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11610" yWindow="600" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="문풀" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,10 @@
     <sheet name="최댓값,최소값" sheetId="4" r:id="rId3"/>
     <sheet name="별찍기" sheetId="5" r:id="rId4"/>
     <sheet name="배열" sheetId="6" r:id="rId5"/>
+    <sheet name="2차원배열" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="270">
   <si>
     <t>회전수 결정조건 : 처음, 끝, 일정한 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -890,17 +891,149 @@
   </si>
   <si>
     <t>let a = new Array[100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문법적인 규칙: 윗 배열부터 생성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const a = new Array(3);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 생성&gt;인덱스&gt;반복문.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차원 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(let I = 0; i&lt;3; i++){</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       a[i] = new Array(2) }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 행렬 구조로도 이해 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 1차원 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 2차원 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[1][1] = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const a = new Array(3);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[0] = new Array(3);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[1] = new Array(5);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[2] = new Array(10);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt; 지그재그 2차원 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 ~ 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 ~ 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; 고정된 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열의 끝값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,8 +1049,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -942,8 +1084,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -966,13 +1114,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,6 +1193,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1492,6 +1704,152 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2400301" y="1533525"/>
+          <a:ext cx="114299" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2619377" y="1552576"/>
+          <a:ext cx="523873" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2905127" y="1552576"/>
+          <a:ext cx="1123948" cy="390524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1754,24 +2112,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CX20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="102" max="102" width="10.59765625" customWidth="1"/>
+    <col min="102" max="102" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2170,7 +2528,7 @@
         <v>9.273726921930792E+20</v>
       </c>
     </row>
-    <row r="5" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2472,7 +2830,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -2480,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -2488,7 +2846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -2496,22 +2854,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:102" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:102" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1</v>
       </c>
@@ -2528,12 +2886,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -2558,16 +2916,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H18:M23"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>111</v>
       </c>
@@ -2587,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
         <v>112</v>
       </c>
@@ -2607,7 +2965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I21">
         <v>16</v>
       </c>
@@ -2624,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="8:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
       <c r="J23" t="s">
         <v>113</v>
       </c>
@@ -2637,22 +2995,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="6.09765625" customWidth="1"/>
+    <col min="17" max="17" width="6.125" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -2664,7 +3022,7 @@
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="P2" t="s">
         <v>143</v>
       </c>
@@ -2675,7 +3033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2689,10 +3047,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -2701,7 +3059,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2719,7 +3077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2736,7 +3094,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>127</v>
       </c>
@@ -2772,7 +3130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>128</v>
       </c>
@@ -2798,7 +3156,7 @@
       </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -2819,7 +3177,7 @@
       </c>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2838,7 +3196,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2863,7 +3221,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2882,7 +3240,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2905,7 +3263,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2928,7 +3286,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2945,7 +3303,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2960,7 +3318,7 @@
       <c r="O17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2984,7 +3342,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>137</v>
       </c>
@@ -3003,26 +3361,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH52" sqref="AH52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="4.09765625" customWidth="1"/>
-    <col min="8" max="13" width="4.19921875" customWidth="1"/>
-    <col min="15" max="20" width="4.3984375" customWidth="1"/>
-    <col min="21" max="21" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="4.125" customWidth="1"/>
+    <col min="8" max="13" width="4.25" customWidth="1"/>
+    <col min="15" max="20" width="4.375" customWidth="1"/>
+    <col min="21" max="21" width="22.75" bestFit="1" customWidth="1"/>
     <col min="22" max="27" width="4" customWidth="1"/>
     <col min="28" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.875" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -3102,7 +3460,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3176,7 +3534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3242,7 +3600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3300,7 +3658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3358,7 +3716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3414,7 +3772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -3494,7 +3852,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -3541,7 +3899,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -3597,7 +3955,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -3663,7 +4021,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -3733,7 +4091,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -3805,7 +4163,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -3885,7 +4243,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3957,7 +4315,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -4023,7 +4381,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -4087,7 +4445,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -4141,7 +4499,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -4195,7 +4553,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
         <v>177</v>
       </c>
@@ -4230,7 +4588,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="U23" t="s">
         <v>165</v>
       </c>
@@ -4262,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="U24" t="s">
         <v>166</v>
       </c>
@@ -4291,7 +4649,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="V25" s="3">
         <v>3</v>
       </c>
@@ -4314,7 +4672,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="V26" s="3">
         <v>4</v>
       </c>
@@ -4337,7 +4695,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="V27" s="3">
         <v>5</v>
       </c>
@@ -4358,7 +4716,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="V29" s="4">
         <v>5</v>
       </c>
@@ -4387,7 +4745,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="V30" s="3">
         <v>1</v>
       </c>
@@ -4408,7 +4766,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="V31" s="3">
         <v>2</v>
       </c>
@@ -4430,7 +4788,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="V32" s="3">
         <v>3</v>
       </c>
@@ -4462,7 +4820,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
     </row>
-    <row r="33" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="33" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V33" s="3">
         <v>4</v>
       </c>
@@ -4498,7 +4856,7 @@
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="34" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V34" s="3">
         <v>5</v>
       </c>
@@ -4536,7 +4894,7 @@
       <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
     </row>
-    <row r="35" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="35" spans="22:42" x14ac:dyDescent="0.3">
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
@@ -4547,7 +4905,7 @@
       <c r="AO35" s="2"/>
       <c r="AP35" s="2"/>
     </row>
-    <row r="36" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="36" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V36" s="4">
         <v>6</v>
       </c>
@@ -4589,7 +4947,7 @@
       <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
     </row>
-    <row r="37" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="37" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V37" s="3">
         <v>1</v>
       </c>
@@ -4623,7 +4981,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
     </row>
-    <row r="38" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="38" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V38" s="3">
         <v>2</v>
       </c>
@@ -4659,7 +5017,7 @@
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
     </row>
-    <row r="39" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="39" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V39" s="3">
         <v>3</v>
       </c>
@@ -4700,7 +5058,7 @@
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
     </row>
-    <row r="40" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="40" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V40" s="3">
         <v>4</v>
       </c>
@@ -4725,7 +5083,7 @@
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
     </row>
-    <row r="41" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="41" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V41" s="3">
         <v>5</v>
       </c>
@@ -4753,7 +5111,7 @@
       <c r="AO41" s="2"/>
       <c r="AP41" s="2"/>
     </row>
-    <row r="42" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="42" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="AH42" s="2"/>
@@ -4766,7 +5124,7 @@
       <c r="AO42" s="2"/>
       <c r="AP42" s="2"/>
     </row>
-    <row r="43" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="43" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V43" s="4">
         <v>7</v>
       </c>
@@ -4806,7 +5164,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
     </row>
-    <row r="44" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="44" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V44" s="3">
         <v>1</v>
       </c>
@@ -4849,7 +5207,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
     </row>
-    <row r="45" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="45" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V45" s="3">
         <v>2</v>
       </c>
@@ -4887,7 +5245,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
     </row>
-    <row r="46" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="46" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V46" s="3">
         <v>3</v>
       </c>
@@ -4916,7 +5274,7 @@
       <c r="AN46" s="2"/>
       <c r="AO46" s="2"/>
     </row>
-    <row r="47" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="47" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V47" s="3">
         <v>4</v>
       </c>
@@ -4940,7 +5298,7 @@
       <c r="AN47" s="2"/>
       <c r="AO47" s="2"/>
     </row>
-    <row r="48" spans="22:42" x14ac:dyDescent="0.4">
+    <row r="48" spans="22:42" x14ac:dyDescent="0.3">
       <c r="V48" s="3">
         <v>5</v>
       </c>
@@ -4964,7 +5322,7 @@
       <c r="AN48" s="2"/>
       <c r="AO48" s="2"/>
     </row>
-    <row r="49" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="49" spans="22:41" x14ac:dyDescent="0.3">
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
@@ -4973,7 +5331,7 @@
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
     </row>
-    <row r="50" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="50" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V50" s="4">
         <v>8</v>
       </c>
@@ -5014,7 +5372,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="51" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V51" s="3">
         <v>1</v>
       </c>
@@ -5033,13 +5391,13 @@
       <c r="AD51" s="2">
         <v>3</v>
       </c>
-      <c r="AE51" s="9" t="s">
+      <c r="AE51" s="12" t="s">
         <v>201</v>
       </c>
       <c r="AF51" s="2">
         <v>3</v>
       </c>
-      <c r="AG51" s="9" t="s">
+      <c r="AG51" s="12" t="s">
         <v>198</v>
       </c>
       <c r="AI51" t="s">
@@ -5049,7 +5407,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="52" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V52" s="3">
         <v>2</v>
       </c>
@@ -5072,11 +5430,11 @@
       <c r="AD52" s="2">
         <v>2</v>
       </c>
-      <c r="AE52" s="9"/>
+      <c r="AE52" s="12"/>
       <c r="AF52" s="2">
         <v>4</v>
       </c>
-      <c r="AG52" s="9"/>
+      <c r="AG52" s="12"/>
       <c r="AI52" t="s">
         <v>203</v>
       </c>
@@ -5084,7 +5442,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="53" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V53" s="3">
         <v>3</v>
       </c>
@@ -5112,11 +5470,11 @@
       <c r="AD53" s="2">
         <v>1</v>
       </c>
-      <c r="AE53" s="9"/>
+      <c r="AE53" s="12"/>
       <c r="AF53" s="2">
         <v>5</v>
       </c>
-      <c r="AG53" s="9"/>
+      <c r="AG53" s="12"/>
       <c r="AI53" t="s">
         <v>204</v>
       </c>
@@ -5124,7 +5482,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="54" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V54" s="3">
         <v>4</v>
       </c>
@@ -5148,20 +5506,20 @@
       <c r="AD54" s="2">
         <v>2</v>
       </c>
-      <c r="AE54" s="9" t="s">
+      <c r="AE54" s="12" t="s">
         <v>199</v>
       </c>
       <c r="AF54" s="2">
         <v>4</v>
       </c>
-      <c r="AG54" s="9" t="s">
+      <c r="AG54" s="12" t="s">
         <v>200</v>
       </c>
       <c r="AK54" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="55" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V55" s="3">
         <v>5</v>
       </c>
@@ -5181,13 +5539,13 @@
       <c r="AD55" s="2">
         <v>3</v>
       </c>
-      <c r="AE55" s="9"/>
+      <c r="AE55" s="12"/>
       <c r="AF55" s="2">
         <v>3</v>
       </c>
-      <c r="AG55" s="9"/>
-    </row>
-    <row r="57" spans="22:41" x14ac:dyDescent="0.4">
+      <c r="AG55" s="12"/>
+    </row>
+    <row r="57" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V57" s="4">
         <v>9</v>
       </c>
@@ -5228,7 +5586,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="58" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V58" s="3">
         <v>1</v>
       </c>
@@ -5256,20 +5614,20 @@
       <c r="AD58" s="2">
         <v>1</v>
       </c>
-      <c r="AE58" s="9" t="s">
+      <c r="AE58" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AF58" s="2">
         <v>5</v>
       </c>
-      <c r="AG58" s="9" t="s">
+      <c r="AG58" s="12" t="s">
         <v>211</v>
       </c>
       <c r="AI58" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="59" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V59" s="3">
         <v>2</v>
       </c>
@@ -5292,13 +5650,13 @@
       <c r="AD59" s="2">
         <v>2</v>
       </c>
-      <c r="AE59" s="9"/>
+      <c r="AE59" s="12"/>
       <c r="AF59" s="2">
         <v>4</v>
       </c>
-      <c r="AG59" s="9"/>
-    </row>
-    <row r="60" spans="22:41" x14ac:dyDescent="0.4">
+      <c r="AG59" s="12"/>
+    </row>
+    <row r="60" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V60" s="3">
         <v>3</v>
       </c>
@@ -5318,13 +5676,13 @@
       <c r="AD60" s="2">
         <v>3</v>
       </c>
-      <c r="AE60" s="9"/>
+      <c r="AE60" s="12"/>
       <c r="AF60" s="2">
         <v>3</v>
       </c>
-      <c r="AG60" s="9"/>
-    </row>
-    <row r="61" spans="22:41" x14ac:dyDescent="0.4">
+      <c r="AG60" s="12"/>
+    </row>
+    <row r="61" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V61" s="3">
         <v>4</v>
       </c>
@@ -5348,17 +5706,17 @@
       <c r="AD61" s="2">
         <v>2</v>
       </c>
-      <c r="AE61" s="9" t="s">
+      <c r="AE61" s="12" t="s">
         <v>210</v>
       </c>
       <c r="AF61" s="2">
         <v>4</v>
       </c>
-      <c r="AG61" s="9" t="s">
+      <c r="AG61" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="22:41" x14ac:dyDescent="0.4">
+    <row r="62" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V62" s="3">
         <v>5</v>
       </c>
@@ -5386,13 +5744,13 @@
       <c r="AD62" s="2">
         <v>1</v>
       </c>
-      <c r="AE62" s="9"/>
+      <c r="AE62" s="12"/>
       <c r="AF62" s="2">
         <v>5</v>
       </c>
-      <c r="AG62" s="9"/>
-    </row>
-    <row r="65" spans="28:29" x14ac:dyDescent="0.4">
+      <c r="AG62" s="12"/>
+    </row>
+    <row r="65" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB65"/>
       <c r="AC65"/>
     </row>
@@ -5414,18 +5772,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
-    <col min="2" max="6" width="4.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="6" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>219</v>
       </c>
@@ -5433,7 +5791,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>0</v>
       </c>
@@ -5441,7 +5799,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -5467,7 +5825,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -5487,7 +5845,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>224</v>
       </c>
@@ -5499,7 +5857,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>1</v>
       </c>
@@ -5510,10 +5868,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="6">
         <v>2</v>
       </c>
@@ -5521,13 +5879,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="7"/>
       <c r="J12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="6">
         <v>3</v>
       </c>
@@ -5535,13 +5893,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E14" s="7"/>
       <c r="J14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E15" s="6">
         <v>4</v>
       </c>
@@ -5549,7 +5907,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>217</v>
       </c>
@@ -5558,7 +5916,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -5566,24 +5924,1215 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J24" t="s">
         <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
+    <col min="2" max="23" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" t="s">
+        <v>251</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" t="s">
+        <v>247</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="M10" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" t="s">
+        <v>248</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" t="s">
+        <v>249</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" t="s">
+        <v>250</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="4.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="4.5" customWidth="1"/>
+    <col min="12" max="12" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14">
+        <v>2</v>
+      </c>
+      <c r="E1" s="14">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14">
+        <v>4</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
+        <v>11</v>
+      </c>
+      <c r="C4" s="13">
+        <v>12</v>
+      </c>
+      <c r="D4" s="13">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13">
+        <v>15</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13">
+        <v>17</v>
+      </c>
+      <c r="D5" s="13">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13">
+        <v>19</v>
+      </c>
+      <c r="F5" s="13">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>0</v>
+      </c>
+      <c r="B11" s="13">
+        <v>20</v>
+      </c>
+      <c r="C11" s="13">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
+        <v>19</v>
+      </c>
+      <c r="C12" s="13">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13">
+        <v>9</v>
+      </c>
+      <c r="E12" s="13">
+        <v>4</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13">
+        <v>17</v>
+      </c>
+      <c r="C14" s="13">
+        <v>12</v>
+      </c>
+      <c r="D14" s="13">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>4</v>
+      </c>
+      <c r="B15" s="13">
+        <v>16</v>
+      </c>
+      <c r="C15" s="13">
+        <v>11</v>
+      </c>
+      <c r="D15" s="13">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3</v>
+      </c>
+      <c r="F18" s="14">
+        <v>4</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
+        <v>15</v>
+      </c>
+      <c r="H19" s="9">
+        <v>4</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>1</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
+        <v>14</v>
+      </c>
+      <c r="F20" s="13">
+        <v>13</v>
+      </c>
+      <c r="H20" s="9">
+        <v>3</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>2</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13">
+        <v>11</v>
+      </c>
+      <c r="F21" s="13">
+        <v>10</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>3</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13">
+        <v>9</v>
+      </c>
+      <c r="D22" s="13">
+        <v>8</v>
+      </c>
+      <c r="E22" s="13">
+        <v>7</v>
+      </c>
+      <c r="F22" s="13">
+        <v>6</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>4</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13">
+        <v>4</v>
+      </c>
+      <c r="D23" s="13">
+        <v>3</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>0</v>
+      </c>
+      <c r="B27" s="13">
+        <v>5</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13">
+        <v>9</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>2</v>
+      </c>
+      <c r="B29" s="13">
+        <v>3</v>
+      </c>
+      <c r="C29" s="13">
+        <v>8</v>
+      </c>
+      <c r="D29" s="13">
+        <v>12</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>3</v>
+      </c>
+      <c r="B30" s="13">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13">
+        <v>7</v>
+      </c>
+      <c r="D30" s="13">
+        <v>11</v>
+      </c>
+      <c r="E30" s="13">
+        <v>14</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>4</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
+        <v>6</v>
+      </c>
+      <c r="D31" s="13">
+        <v>10</v>
+      </c>
+      <c r="E31" s="13">
+        <v>13</v>
+      </c>
+      <c r="F31" s="13">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/JS.xlsx
+++ b/JS.xlsx
@@ -18,7 +18,7 @@
     <sheet name="별찍기" sheetId="5" r:id="rId4"/>
     <sheet name="배열" sheetId="6" r:id="rId5"/>
     <sheet name="2차원배열" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="숫자찍기" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,8 +40,158 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="M64" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2~2 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>규칙성</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파악</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>증감여부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파악하기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="360">
   <si>
     <t>회전수 결정조건 : 처음, 끝, 일정한 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,11 +1128,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열의 끝값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자시작(4-행)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90도 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 - 행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본 배열의 고정값(행)과 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시배열저장구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본배열 읽는구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180도 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ex2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>행</t>
+    <t>원본 배열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -990,39 +1248,288 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4~0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열의 끝값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행</t>
+    <t>0~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270도 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시배열저장구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달팽이 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~4열</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4열 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~4행</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~0열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0열 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~1행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~3행</t>
+  </si>
+  <si>
+    <t>3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1열 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~2행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2행 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행고정구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열고정구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f 생성식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c = c + f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[r][c] = v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v = v + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r = r+ f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a[r][c] = v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v = v + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙성 파악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현절차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 구하는 식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 생성식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증감여부(f)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전수(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I = 1 ~ 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I = 1 ~s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(s &lt;= 0 ) break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = -f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 세부구조 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 초기값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c = -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달팽이 구조 ( 회전 ver.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,8 +1565,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,6 +1617,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,7 +1759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,6 +1822,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1850,6 +2527,520 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 화살표 연결선 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2390775" y="11868150"/>
+          <a:ext cx="733425" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362201" y="11839575"/>
+          <a:ext cx="523874" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="12153900"/>
+          <a:ext cx="1371600" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="12153900"/>
+          <a:ext cx="1371600" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="11525250"/>
+          <a:ext cx="4829175" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="타원 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="11953875"/>
+          <a:ext cx="238126" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="타원 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="11944350"/>
+          <a:ext cx="238126" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="타원 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="11734800"/>
+          <a:ext cx="238126" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="타원 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="11734800"/>
+          <a:ext cx="238126" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -5391,13 +6582,13 @@
       <c r="AD51" s="2">
         <v>3</v>
       </c>
-      <c r="AE51" s="12" t="s">
+      <c r="AE51" s="25" t="s">
         <v>201</v>
       </c>
       <c r="AF51" s="2">
         <v>3</v>
       </c>
-      <c r="AG51" s="12" t="s">
+      <c r="AG51" s="25" t="s">
         <v>198</v>
       </c>
       <c r="AI51" t="s">
@@ -5430,11 +6621,11 @@
       <c r="AD52" s="2">
         <v>2</v>
       </c>
-      <c r="AE52" s="12"/>
+      <c r="AE52" s="25"/>
       <c r="AF52" s="2">
         <v>4</v>
       </c>
-      <c r="AG52" s="12"/>
+      <c r="AG52" s="25"/>
       <c r="AI52" t="s">
         <v>203</v>
       </c>
@@ -5470,11 +6661,11 @@
       <c r="AD53" s="2">
         <v>1</v>
       </c>
-      <c r="AE53" s="12"/>
+      <c r="AE53" s="25"/>
       <c r="AF53" s="2">
         <v>5</v>
       </c>
-      <c r="AG53" s="12"/>
+      <c r="AG53" s="25"/>
       <c r="AI53" t="s">
         <v>204</v>
       </c>
@@ -5506,13 +6697,13 @@
       <c r="AD54" s="2">
         <v>2</v>
       </c>
-      <c r="AE54" s="12" t="s">
+      <c r="AE54" s="25" t="s">
         <v>199</v>
       </c>
       <c r="AF54" s="2">
         <v>4</v>
       </c>
-      <c r="AG54" s="12" t="s">
+      <c r="AG54" s="25" t="s">
         <v>200</v>
       </c>
       <c r="AK54" t="s">
@@ -5539,11 +6730,11 @@
       <c r="AD55" s="2">
         <v>3</v>
       </c>
-      <c r="AE55" s="12"/>
+      <c r="AE55" s="25"/>
       <c r="AF55" s="2">
         <v>3</v>
       </c>
-      <c r="AG55" s="12"/>
+      <c r="AG55" s="25"/>
     </row>
     <row r="57" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V57" s="4">
@@ -5614,13 +6805,13 @@
       <c r="AD58" s="2">
         <v>1</v>
       </c>
-      <c r="AE58" s="12" t="s">
+      <c r="AE58" s="25" t="s">
         <v>208</v>
       </c>
       <c r="AF58" s="2">
         <v>5</v>
       </c>
-      <c r="AG58" s="12" t="s">
+      <c r="AG58" s="25" t="s">
         <v>211</v>
       </c>
       <c r="AI58" t="s">
@@ -5650,11 +6841,11 @@
       <c r="AD59" s="2">
         <v>2</v>
       </c>
-      <c r="AE59" s="12"/>
+      <c r="AE59" s="25"/>
       <c r="AF59" s="2">
         <v>4</v>
       </c>
-      <c r="AG59" s="12"/>
+      <c r="AG59" s="25"/>
     </row>
     <row r="60" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V60" s="3">
@@ -5676,11 +6867,11 @@
       <c r="AD60" s="2">
         <v>3</v>
       </c>
-      <c r="AE60" s="12"/>
+      <c r="AE60" s="25"/>
       <c r="AF60" s="2">
         <v>3</v>
       </c>
-      <c r="AG60" s="12"/>
+      <c r="AG60" s="25"/>
     </row>
     <row r="61" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V61" s="3">
@@ -5706,13 +6897,13 @@
       <c r="AD61" s="2">
         <v>2</v>
       </c>
-      <c r="AE61" s="12" t="s">
+      <c r="AE61" s="25" t="s">
         <v>210</v>
       </c>
       <c r="AF61" s="2">
         <v>4</v>
       </c>
-      <c r="AG61" s="12" t="s">
+      <c r="AG61" s="25" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5744,11 +6935,11 @@
       <c r="AD62" s="2">
         <v>1</v>
       </c>
-      <c r="AE62" s="12"/>
+      <c r="AE62" s="25"/>
       <c r="AF62" s="2">
         <v>5</v>
       </c>
-      <c r="AG62" s="12"/>
+      <c r="AG62" s="25"/>
     </row>
     <row r="65" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB65"/>
@@ -6566,11 +7757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6579,10 +7770,13 @@
     <col min="10" max="10" width="7.5" style="9" customWidth="1"/>
     <col min="11" max="11" width="4.5" customWidth="1"/>
     <col min="12" max="12" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="12"/>
+    <col min="15" max="15" width="9.375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="14">
         <v>0</v>
@@ -6606,7 +7800,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -6632,7 +7826,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -6658,7 +7852,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -6685,7 +7879,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -6711,7 +7905,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -6737,18 +7931,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>257</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="18">
         <v>0</v>
@@ -6769,7 +7960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>0</v>
       </c>
@@ -6792,7 +7983,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>1</v>
       </c>
@@ -6815,7 +8006,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>2</v>
       </c>
@@ -6838,7 +8029,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>3</v>
       </c>
@@ -6861,7 +8052,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>4</v>
       </c>
@@ -6881,12 +8072,21 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="18">
         <v>0</v>
@@ -6904,16 +8104,25 @@
         <v>4</v>
       </c>
       <c r="H18" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="L18" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>0</v>
       </c>
@@ -6928,13 +8137,22 @@
         <v>4</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O19" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>1</v>
       </c>
@@ -6951,10 +8169,19 @@
         <v>3</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O20" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>2</v>
       </c>
@@ -6973,10 +8200,19 @@
         <v>2</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="M21" s="12">
+        <v>2</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O21" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>3</v>
       </c>
@@ -6997,10 +8233,19 @@
         <v>1</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="M22" s="12">
+        <v>3</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>4</v>
       </c>
@@ -7023,15 +8268,35 @@
         <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="M23" s="12">
+        <v>4</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="18">
         <v>0</v>
@@ -7048,14 +8313,21 @@
       <c r="F26" s="14">
         <v>4</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H26" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>0</v>
       </c>
@@ -7066,8 +8338,21 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H27" s="12">
+        <v>4</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>1</v>
       </c>
@@ -7080,8 +8365,21 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H28" s="12">
+        <v>3</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" s="12">
+        <v>1</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>2</v>
       </c>
@@ -7096,8 +8394,21 @@
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H29" s="12">
+        <v>2</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" s="12">
+        <v>2</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>3</v>
       </c>
@@ -7114,8 +8425,21 @@
         <v>14</v>
       </c>
       <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H30" s="12">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" s="12">
+        <v>3</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>4</v>
       </c>
@@ -7133,10 +8457,1119 @@
       </c>
       <c r="F31" s="13">
         <v>15</v>
+      </c>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" s="12">
+        <v>4</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L32" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L33" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="L35" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="M35" s="23"/>
+      <c r="O35" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="18">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14">
+        <v>1</v>
+      </c>
+      <c r="D36" s="14">
+        <v>2</v>
+      </c>
+      <c r="E36" s="14">
+        <v>3</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>0</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13">
+        <v>2</v>
+      </c>
+      <c r="D37" s="13">
+        <v>3</v>
+      </c>
+      <c r="E37" s="13">
+        <v>4</v>
+      </c>
+      <c r="F37" s="13">
+        <v>5</v>
+      </c>
+      <c r="H37" s="12">
+        <v>4</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="O37" s="12">
+        <v>0</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>0</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>1</v>
+      </c>
+      <c r="B38" s="13">
+        <v>6</v>
+      </c>
+      <c r="C38" s="13">
+        <v>7</v>
+      </c>
+      <c r="D38" s="13">
+        <v>8</v>
+      </c>
+      <c r="E38" s="13">
+        <v>9</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="H38" s="12">
+        <v>3</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L38" s="12">
+        <v>1</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="O38" s="12">
+        <v>1</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>1</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>2</v>
+      </c>
+      <c r="B39" s="13">
+        <v>10</v>
+      </c>
+      <c r="C39" s="13">
+        <v>11</v>
+      </c>
+      <c r="D39" s="13">
+        <v>12</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="H39" s="12">
+        <v>2</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="12">
+        <v>2</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" s="12">
+        <v>2</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>2</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>3</v>
+      </c>
+      <c r="B40" s="13">
+        <v>13</v>
+      </c>
+      <c r="C40" s="13">
+        <v>14</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="H40" s="12">
+        <v>1</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L40" s="12">
+        <v>3</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="O40" s="12">
+        <v>3</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>3</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>4</v>
+      </c>
+      <c r="B41" s="13">
+        <v>15</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="H41" s="12">
+        <v>0</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L41" s="12">
+        <v>4</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="O41" s="12">
+        <v>4</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>4</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="L42" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L43" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="L45" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="M45" s="23"/>
+      <c r="O45" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="18">
+        <v>0</v>
+      </c>
+      <c r="C46" s="14">
+        <v>1</v>
+      </c>
+      <c r="D46" s="14">
+        <v>2</v>
+      </c>
+      <c r="E46" s="14">
+        <v>3</v>
+      </c>
+      <c r="F46" s="14">
+        <v>4</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="O46" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q46" s="12"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
+        <v>0</v>
+      </c>
+      <c r="B47" s="13">
+        <v>15</v>
+      </c>
+      <c r="C47" s="13">
+        <v>13</v>
+      </c>
+      <c r="D47" s="13">
+        <v>10</v>
+      </c>
+      <c r="E47" s="13">
+        <v>6</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="12">
+        <v>4</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L47" s="12">
+        <v>4</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O47" s="12">
+        <v>0</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q47" s="12"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
+        <v>1</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13">
+        <v>14</v>
+      </c>
+      <c r="D48" s="13">
+        <v>11</v>
+      </c>
+      <c r="E48" s="13">
+        <v>7</v>
+      </c>
+      <c r="F48" s="13">
+        <v>2</v>
+      </c>
+      <c r="H48" s="12">
+        <v>3</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L48" s="12">
+        <v>3</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O48" s="12">
+        <v>1</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q48" s="12"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
+        <v>2</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13">
+        <v>12</v>
+      </c>
+      <c r="E49" s="13">
+        <v>8</v>
+      </c>
+      <c r="F49" s="13">
+        <v>3</v>
+      </c>
+      <c r="H49" s="12">
+        <v>2</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L49" s="12">
+        <v>2</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O49" s="12">
+        <v>2</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q49" s="12"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
+        <v>3</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13">
+        <v>9</v>
+      </c>
+      <c r="F50" s="13">
+        <v>4</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L50" s="12">
+        <v>1</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O50" s="12">
+        <v>3</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q50" s="12"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
+        <v>4</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13">
+        <v>5</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L51" s="12">
+        <v>0</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="O51" s="12">
+        <v>4</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q51" s="12"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="L52" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="L53" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="S54" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="S55" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="T55" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="18">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1</v>
+      </c>
+      <c r="D56" s="14">
+        <v>2</v>
+      </c>
+      <c r="E56" s="14">
+        <v>3</v>
+      </c>
+      <c r="F56" s="14">
+        <v>4</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="L56" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="O56" s="21"/>
+      <c r="R56" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" s="19">
+        <v>0</v>
+      </c>
+      <c r="B57" s="26">
+        <v>1</v>
+      </c>
+      <c r="C57" s="26">
+        <v>2</v>
+      </c>
+      <c r="D57" s="26">
+        <v>3</v>
+      </c>
+      <c r="E57" s="26">
+        <v>4</v>
+      </c>
+      <c r="F57" s="26">
+        <v>5</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="I57" s="38"/>
+      <c r="J57" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
+        <v>1</v>
+      </c>
+      <c r="B58" s="28">
+        <v>16</v>
+      </c>
+      <c r="C58" s="32">
+        <v>17</v>
+      </c>
+      <c r="D58" s="32">
+        <v>18</v>
+      </c>
+      <c r="E58" s="32">
+        <v>19</v>
+      </c>
+      <c r="F58" s="30">
+        <v>6</v>
+      </c>
+      <c r="G58" s="21"/>
+      <c r="H58" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I58" s="37"/>
+      <c r="J58" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="L58" s="9">
+        <v>4</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="P58" t="s">
+        <v>326</v>
+      </c>
+      <c r="S58" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
+        <v>2</v>
+      </c>
+      <c r="B59" s="28">
+        <v>15</v>
+      </c>
+      <c r="C59" s="29">
+        <v>24</v>
+      </c>
+      <c r="D59" s="33">
+        <v>25</v>
+      </c>
+      <c r="E59" s="34">
+        <v>20</v>
+      </c>
+      <c r="F59" s="30">
+        <v>7</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="I59" s="40"/>
+      <c r="J59" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="L59" s="9">
+        <v>4</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="P59" t="s">
+        <v>343</v>
+      </c>
+      <c r="S59" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" s="14">
+        <v>3</v>
+      </c>
+      <c r="B60" s="28">
+        <v>14</v>
+      </c>
+      <c r="C60" s="35">
+        <v>23</v>
+      </c>
+      <c r="D60" s="35">
+        <v>22</v>
+      </c>
+      <c r="E60" s="34">
+        <v>21</v>
+      </c>
+      <c r="F60" s="30">
+        <v>8</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="I60" s="41"/>
+      <c r="J60" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="L60" s="9">
+        <v>3</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="P60" t="s">
+        <v>330</v>
+      </c>
+      <c r="S60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
+        <v>4</v>
+      </c>
+      <c r="B61" s="31">
+        <v>13</v>
+      </c>
+      <c r="C61" s="31">
+        <v>12</v>
+      </c>
+      <c r="D61" s="31">
+        <v>11</v>
+      </c>
+      <c r="E61" s="31">
+        <v>10</v>
+      </c>
+      <c r="F61" s="30">
+        <v>9</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="I61" s="42"/>
+      <c r="J61" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="L61" s="9">
+        <v>3</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="P61" t="s">
+        <v>331</v>
+      </c>
+      <c r="S61" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H62" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="I62" s="43"/>
+      <c r="J62" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="L62" s="9">
+        <v>2</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="P62" t="s">
+        <v>332</v>
+      </c>
+      <c r="S62" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="H63" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="I63" s="39"/>
+      <c r="J63" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="L63" s="9">
+        <v>2</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64" s="21"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="H64" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="I64" s="44"/>
+      <c r="J64" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="L64" s="9">
+        <v>1</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P64" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="H65" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="I65" s="45"/>
+      <c r="J65" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L65" s="9">
+        <v>1</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="P65" t="s">
+        <v>345</v>
+      </c>
+      <c r="S65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="18">
+        <v>0</v>
+      </c>
+      <c r="C71" s="14">
+        <v>1</v>
+      </c>
+      <c r="D71" s="14">
+        <v>2</v>
+      </c>
+      <c r="E71" s="14">
+        <v>3</v>
+      </c>
+      <c r="F71" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="19">
+        <v>0</v>
+      </c>
+      <c r="B72" s="36">
+        <v>5</v>
+      </c>
+      <c r="C72" s="36">
+        <v>6</v>
+      </c>
+      <c r="D72" s="36">
+        <v>7</v>
+      </c>
+      <c r="E72" s="36">
+        <v>8</v>
+      </c>
+      <c r="F72" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="14">
+        <v>1</v>
+      </c>
+      <c r="B73" s="36">
+        <v>4</v>
+      </c>
+      <c r="C73" s="36">
+        <v>19</v>
+      </c>
+      <c r="D73" s="36">
+        <v>20</v>
+      </c>
+      <c r="E73" s="36">
+        <v>21</v>
+      </c>
+      <c r="F73" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="14">
+        <v>2</v>
+      </c>
+      <c r="B74" s="36">
+        <v>3</v>
+      </c>
+      <c r="C74" s="36">
+        <v>18</v>
+      </c>
+      <c r="D74" s="36">
+        <v>25</v>
+      </c>
+      <c r="E74" s="36">
+        <v>22</v>
+      </c>
+      <c r="F74" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="14">
+        <v>3</v>
+      </c>
+      <c r="B75" s="36">
+        <v>2</v>
+      </c>
+      <c r="C75" s="36">
+        <v>17</v>
+      </c>
+      <c r="D75" s="36">
+        <v>24</v>
+      </c>
+      <c r="E75" s="36">
+        <v>23</v>
+      </c>
+      <c r="F75" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="14">
+        <v>4</v>
+      </c>
+      <c r="B76" s="36">
+        <v>1</v>
+      </c>
+      <c r="C76" s="36">
+        <v>16</v>
+      </c>
+      <c r="D76" s="36">
+        <v>15</v>
+      </c>
+      <c r="E76" s="36">
+        <v>14</v>
+      </c>
+      <c r="F76" s="36">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/JS.xlsx
+++ b/JS.xlsx
@@ -7760,8 +7760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/JS.xlsx
+++ b/JS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-11610" yWindow="600" windowWidth="17280" windowHeight="8970" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-11610" yWindow="600" windowWidth="17280" windowHeight="8970" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="문풀" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="배열" sheetId="6" r:id="rId5"/>
     <sheet name="2차원배열" sheetId="7" r:id="rId6"/>
     <sheet name="숫자찍기" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="387">
   <si>
     <t>회전수 결정조건 : 처음, 끝, 일정한 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1530,6 +1531,114 @@
   </si>
   <si>
     <t>ex6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~0행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~4열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~4행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~1행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~2행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증감여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열고정구조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1589,7 +1698,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1692,6 +1801,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1759,7 +1892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1897,6 +2030,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3038,6 +3213,610 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="12153900"/>
+          <a:ext cx="1371600" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="12153900"/>
+          <a:ext cx="1371600" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="11525250"/>
+          <a:ext cx="4829175" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>162521</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="4267796" cy="1571844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>172048</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1885950"/>
+          <a:ext cx="4286848" cy="1209844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>181572</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143041</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="3352800"/>
+          <a:ext cx="4277322" cy="1190791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>410171</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="3333750"/>
+          <a:ext cx="4267796" cy="1209844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>181575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="0"/>
+          <a:ext cx="4296375" cy="1581371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>162521</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="1866900"/>
+          <a:ext cx="4267796" cy="1200318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3086100" y="2781300"/>
+          <a:ext cx="9525" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829051" y="2828925"/>
+          <a:ext cx="1076324" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="1609725"/>
+          <a:ext cx="0" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86023</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90788</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 화살표 연결선 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7629823" y="1581371"/>
+          <a:ext cx="4765" cy="285529"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6582,13 +7361,13 @@
       <c r="AD51" s="2">
         <v>3</v>
       </c>
-      <c r="AE51" s="25" t="s">
+      <c r="AE51" s="46" t="s">
         <v>201</v>
       </c>
       <c r="AF51" s="2">
         <v>3</v>
       </c>
-      <c r="AG51" s="25" t="s">
+      <c r="AG51" s="46" t="s">
         <v>198</v>
       </c>
       <c r="AI51" t="s">
@@ -6621,11 +7400,11 @@
       <c r="AD52" s="2">
         <v>2</v>
       </c>
-      <c r="AE52" s="25"/>
+      <c r="AE52" s="46"/>
       <c r="AF52" s="2">
         <v>4</v>
       </c>
-      <c r="AG52" s="25"/>
+      <c r="AG52" s="46"/>
       <c r="AI52" t="s">
         <v>203</v>
       </c>
@@ -6661,11 +7440,11 @@
       <c r="AD53" s="2">
         <v>1</v>
       </c>
-      <c r="AE53" s="25"/>
+      <c r="AE53" s="46"/>
       <c r="AF53" s="2">
         <v>5</v>
       </c>
-      <c r="AG53" s="25"/>
+      <c r="AG53" s="46"/>
       <c r="AI53" t="s">
         <v>204</v>
       </c>
@@ -6697,13 +7476,13 @@
       <c r="AD54" s="2">
         <v>2</v>
       </c>
-      <c r="AE54" s="25" t="s">
+      <c r="AE54" s="46" t="s">
         <v>199</v>
       </c>
       <c r="AF54" s="2">
         <v>4</v>
       </c>
-      <c r="AG54" s="25" t="s">
+      <c r="AG54" s="46" t="s">
         <v>200</v>
       </c>
       <c r="AK54" t="s">
@@ -6730,11 +7509,11 @@
       <c r="AD55" s="2">
         <v>3</v>
       </c>
-      <c r="AE55" s="25"/>
+      <c r="AE55" s="46"/>
       <c r="AF55" s="2">
         <v>3</v>
       </c>
-      <c r="AG55" s="25"/>
+      <c r="AG55" s="46"/>
     </row>
     <row r="57" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V57" s="4">
@@ -6805,13 +7584,13 @@
       <c r="AD58" s="2">
         <v>1</v>
       </c>
-      <c r="AE58" s="25" t="s">
+      <c r="AE58" s="46" t="s">
         <v>208</v>
       </c>
       <c r="AF58" s="2">
         <v>5</v>
       </c>
-      <c r="AG58" s="25" t="s">
+      <c r="AG58" s="46" t="s">
         <v>211</v>
       </c>
       <c r="AI58" t="s">
@@ -6841,11 +7620,11 @@
       <c r="AD59" s="2">
         <v>2</v>
       </c>
-      <c r="AE59" s="25"/>
+      <c r="AE59" s="46"/>
       <c r="AF59" s="2">
         <v>4</v>
       </c>
-      <c r="AG59" s="25"/>
+      <c r="AG59" s="46"/>
     </row>
     <row r="60" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V60" s="3">
@@ -6867,11 +7646,11 @@
       <c r="AD60" s="2">
         <v>3</v>
       </c>
-      <c r="AE60" s="25"/>
+      <c r="AE60" s="46"/>
       <c r="AF60" s="2">
         <v>3</v>
       </c>
-      <c r="AG60" s="25"/>
+      <c r="AG60" s="46"/>
     </row>
     <row r="61" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V61" s="3">
@@ -6897,13 +7676,13 @@
       <c r="AD61" s="2">
         <v>2</v>
       </c>
-      <c r="AE61" s="25" t="s">
+      <c r="AE61" s="46" t="s">
         <v>210</v>
       </c>
       <c r="AF61" s="2">
         <v>4</v>
       </c>
-      <c r="AG61" s="25" t="s">
+      <c r="AG61" s="46" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6935,11 +7714,11 @@
       <c r="AD62" s="2">
         <v>1</v>
       </c>
-      <c r="AE62" s="25"/>
+      <c r="AE62" s="46"/>
       <c r="AF62" s="2">
         <v>5</v>
       </c>
-      <c r="AG62" s="25"/>
+      <c r="AG62" s="46"/>
     </row>
     <row r="65" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB65"/>
@@ -7758,10 +8537,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9367,7 +10146,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="27" t="s">
         <v>338</v>
       </c>
@@ -9399,7 +10178,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
         <v>339</v>
       </c>
@@ -9411,7 +10190,7 @@
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>348</v>
       </c>
@@ -9423,7 +10202,7 @@
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>349</v>
       </c>
@@ -9433,10 +10212,10 @@
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>359</v>
       </c>
@@ -9446,8 +10225,19 @@
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="R70" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="S70" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="18">
         <v>0</v>
@@ -9464,106 +10254,324 @@
       <c r="F71" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L71" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="O71" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="P71" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q71" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="R71" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="S71" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="T71" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>0</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="26">
         <v>5</v>
       </c>
-      <c r="C72" s="36">
+      <c r="C72" s="30">
         <v>6</v>
       </c>
-      <c r="D72" s="36">
+      <c r="D72" s="30">
         <v>7</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="30">
         <v>8</v>
       </c>
-      <c r="F72" s="36">
+      <c r="F72" s="30">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H72" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="I72" s="52"/>
+      <c r="J72" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="L72" s="9">
+        <v>5</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="O72" s="25"/>
+      <c r="R72" s="25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>1</v>
       </c>
-      <c r="B73" s="36">
-        <v>4</v>
-      </c>
-      <c r="C73" s="36">
+      <c r="B73" s="26">
+        <v>4</v>
+      </c>
+      <c r="C73" s="48">
         <v>19</v>
       </c>
-      <c r="D73" s="36">
+      <c r="D73" s="49">
         <v>20</v>
       </c>
-      <c r="E73" s="36">
+      <c r="E73" s="49">
         <v>21</v>
       </c>
-      <c r="F73" s="36">
+      <c r="F73" s="47">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H73" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="I73" s="54"/>
+      <c r="J73" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="L73" s="9">
+        <v>4</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="O73" s="25"/>
+      <c r="R73" s="25"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>2</v>
       </c>
-      <c r="B74" s="36">
-        <v>3</v>
-      </c>
-      <c r="C74" s="36">
+      <c r="B74" s="26">
+        <v>3</v>
+      </c>
+      <c r="C74" s="48">
         <v>18</v>
       </c>
       <c r="D74" s="36">
         <v>25</v>
       </c>
-      <c r="E74" s="36">
+      <c r="E74" s="33">
         <v>22</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="47">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H74" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="I74" s="51"/>
+      <c r="J74" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="L74" s="9">
+        <v>4</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O74" s="25"/>
+      <c r="P74" t="s">
+        <v>386</v>
+      </c>
+      <c r="R74" s="25"/>
+      <c r="S74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>3</v>
       </c>
-      <c r="B75" s="36">
-        <v>2</v>
-      </c>
-      <c r="C75" s="36">
+      <c r="B75" s="26">
+        <v>2</v>
+      </c>
+      <c r="C75" s="48">
         <v>17</v>
       </c>
-      <c r="D75" s="36">
+      <c r="D75" s="50">
         <v>24</v>
       </c>
-      <c r="E75" s="36">
+      <c r="E75" s="33">
         <v>23</v>
       </c>
-      <c r="F75" s="36">
+      <c r="F75" s="47">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H75" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="I75" s="55"/>
+      <c r="J75" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="L75" s="9">
+        <v>3</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="O75" s="25"/>
+      <c r="P75" t="s">
+        <v>343</v>
+      </c>
+      <c r="R75" s="25"/>
+      <c r="S75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>4</v>
       </c>
-      <c r="B76" s="36">
-        <v>1</v>
-      </c>
-      <c r="C76" s="36">
+      <c r="B76" s="26">
+        <v>1</v>
+      </c>
+      <c r="C76" s="28">
         <v>16</v>
       </c>
-      <c r="D76" s="36">
+      <c r="D76" s="28">
         <v>15</v>
       </c>
-      <c r="E76" s="36">
+      <c r="E76" s="28">
         <v>14</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="47">
         <v>13</v>
       </c>
+      <c r="H76" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="I76" s="56"/>
+      <c r="J76" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="L76" s="9">
+        <v>3</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="O76" s="25"/>
+      <c r="P76" t="s">
+        <v>330</v>
+      </c>
+      <c r="R76" s="25"/>
+      <c r="S76" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H77" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="I77" s="58"/>
+      <c r="J77" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="L77" s="9">
+        <v>2</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="O77" s="25"/>
+      <c r="P77" t="s">
+        <v>331</v>
+      </c>
+      <c r="R77" s="25"/>
+      <c r="S77" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H78" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="I78" s="59"/>
+      <c r="J78" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="L78" s="9">
+        <v>2</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="O78" s="25"/>
+      <c r="P78" t="s">
+        <v>332</v>
+      </c>
+      <c r="R78" s="25"/>
+      <c r="S78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H79" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="I79" s="53"/>
+      <c r="J79" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="L79" s="9">
+        <v>1</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="O79" s="25"/>
+      <c r="R79" s="25"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H80" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="I80" s="57"/>
+      <c r="J80" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="L80" s="9">
+        <v>1</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="O80" s="25"/>
+      <c r="P80" t="s">
+        <v>344</v>
+      </c>
+      <c r="R80" s="25"/>
+    </row>
+    <row r="81" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O81" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="P81" t="s">
+        <v>345</v>
+      </c>
+      <c r="R81" s="25"/>
+      <c r="S81" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="15:19" x14ac:dyDescent="0.3">
+      <c r="O82" s="25"/>
+      <c r="R82" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9572,4 +10580,20 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/JS.xlsx
+++ b/JS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-11610" yWindow="600" windowWidth="17280" windowHeight="8970" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-11610" yWindow="600" windowWidth="17280" windowHeight="8970" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="문풀" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="배열" sheetId="6" r:id="rId5"/>
     <sheet name="2차원배열" sheetId="7" r:id="rId6"/>
     <sheet name="숫자찍기" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="끝말잇기" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="410">
   <si>
     <t>회전수 결정조건 : 처음, 끝, 일정한 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1639,6 +1639,98 @@
   </si>
   <si>
     <t>열고정구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 끝말잇기 start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 처음 한글 세글자 단어 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 x 이거나 단어 수 != 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세글자 단어만 입력하세요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 종료?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 다시진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 다시 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Ok!! 게임시작~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이전 단어 : 000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 한글 세단어 입력 !! 종료하려면 "끝" 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 한글 세단어 입력 !! 종료하려면 "끝" 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 끝내?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n개의 끝말잇기 성공 ^^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 입력진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. (비교 후) Ok?? Excellent!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1892,7 +1984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2031,9 +2123,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2072,6 +2161,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3398,256 +3499,28 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>162521</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104994</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="0"/>
-          <a:ext cx="4267796" cy="1571844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>172048</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>162094</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1885950"/>
-          <a:ext cx="4286848" cy="1209844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>181572</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>143041</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19050" y="3352800"/>
-          <a:ext cx="4277322" cy="1190791"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>410171</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>143044</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4371975" y="3333750"/>
-          <a:ext cx="4267796" cy="1209844"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>181575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="0"/>
-          <a:ext cx="4296375" cy="1581371"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>162521</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133518</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5495925" y="1866900"/>
-          <a:ext cx="4267796" cy="1200318"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3086100" y="2781300"/>
-          <a:ext cx="9525" cy="800100"/>
+        <a:xfrm flipV="1">
+          <a:off x="5457825" y="933450"/>
+          <a:ext cx="971550" cy="9526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3675,26 +3548,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="직선 화살표 연결선 9"/>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3829051" y="2828925"/>
-          <a:ext cx="1076324" cy="609600"/>
+          <a:off x="5467350" y="933451"/>
+          <a:ext cx="923925" cy="771524"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3722,26 +3595,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>933449</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419849" y="628650"/>
+          <a:ext cx="3267075" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+        <xdr:cNvPr id="14" name="직선 화살표 연결선 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1943100" y="1609725"/>
-          <a:ext cx="0" cy="219075"/>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="1714500"/>
+          <a:ext cx="1019175" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3769,29 +3697,75 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>86023</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114521</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>90788</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>933449</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="직선 화살표 연결선 16"/>
+        <xdr:cNvPr id="16" name="직선 화살표 연결선 15"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7629823" y="1581371"/>
-          <a:ext cx="4765" cy="285529"/>
+        <a:xfrm flipV="1">
+          <a:off x="5781675" y="1676400"/>
+          <a:ext cx="638174" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="직선 화살표 연결선 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="4391025"/>
+          <a:ext cx="561975" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7361,13 +7335,13 @@
       <c r="AD51" s="2">
         <v>3</v>
       </c>
-      <c r="AE51" s="46" t="s">
+      <c r="AE51" s="59" t="s">
         <v>201</v>
       </c>
       <c r="AF51" s="2">
         <v>3</v>
       </c>
-      <c r="AG51" s="46" t="s">
+      <c r="AG51" s="59" t="s">
         <v>198</v>
       </c>
       <c r="AI51" t="s">
@@ -7400,11 +7374,11 @@
       <c r="AD52" s="2">
         <v>2</v>
       </c>
-      <c r="AE52" s="46"/>
+      <c r="AE52" s="59"/>
       <c r="AF52" s="2">
         <v>4</v>
       </c>
-      <c r="AG52" s="46"/>
+      <c r="AG52" s="59"/>
       <c r="AI52" t="s">
         <v>203</v>
       </c>
@@ -7440,11 +7414,11 @@
       <c r="AD53" s="2">
         <v>1</v>
       </c>
-      <c r="AE53" s="46"/>
+      <c r="AE53" s="59"/>
       <c r="AF53" s="2">
         <v>5</v>
       </c>
-      <c r="AG53" s="46"/>
+      <c r="AG53" s="59"/>
       <c r="AI53" t="s">
         <v>204</v>
       </c>
@@ -7476,13 +7450,13 @@
       <c r="AD54" s="2">
         <v>2</v>
       </c>
-      <c r="AE54" s="46" t="s">
+      <c r="AE54" s="59" t="s">
         <v>199</v>
       </c>
       <c r="AF54" s="2">
         <v>4</v>
       </c>
-      <c r="AG54" s="46" t="s">
+      <c r="AG54" s="59" t="s">
         <v>200</v>
       </c>
       <c r="AK54" t="s">
@@ -7509,11 +7483,11 @@
       <c r="AD55" s="2">
         <v>3</v>
       </c>
-      <c r="AE55" s="46"/>
+      <c r="AE55" s="59"/>
       <c r="AF55" s="2">
         <v>3</v>
       </c>
-      <c r="AG55" s="46"/>
+      <c r="AG55" s="59"/>
     </row>
     <row r="57" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V57" s="4">
@@ -7584,13 +7558,13 @@
       <c r="AD58" s="2">
         <v>1</v>
       </c>
-      <c r="AE58" s="46" t="s">
+      <c r="AE58" s="59" t="s">
         <v>208</v>
       </c>
       <c r="AF58" s="2">
         <v>5</v>
       </c>
-      <c r="AG58" s="46" t="s">
+      <c r="AG58" s="59" t="s">
         <v>211</v>
       </c>
       <c r="AI58" t="s">
@@ -7620,11 +7594,11 @@
       <c r="AD59" s="2">
         <v>2</v>
       </c>
-      <c r="AE59" s="46"/>
+      <c r="AE59" s="59"/>
       <c r="AF59" s="2">
         <v>4</v>
       </c>
-      <c r="AG59" s="46"/>
+      <c r="AG59" s="59"/>
     </row>
     <row r="60" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V60" s="3">
@@ -7646,11 +7620,11 @@
       <c r="AD60" s="2">
         <v>3</v>
       </c>
-      <c r="AE60" s="46"/>
+      <c r="AE60" s="59"/>
       <c r="AF60" s="2">
         <v>3</v>
       </c>
-      <c r="AG60" s="46"/>
+      <c r="AG60" s="59"/>
     </row>
     <row r="61" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V61" s="3">
@@ -7676,13 +7650,13 @@
       <c r="AD61" s="2">
         <v>2</v>
       </c>
-      <c r="AE61" s="46" t="s">
+      <c r="AE61" s="59" t="s">
         <v>210</v>
       </c>
       <c r="AF61" s="2">
         <v>4</v>
       </c>
-      <c r="AG61" s="46" t="s">
+      <c r="AG61" s="59" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7714,11 +7688,11 @@
       <c r="AD62" s="2">
         <v>1</v>
       </c>
-      <c r="AE62" s="46"/>
+      <c r="AE62" s="59"/>
       <c r="AF62" s="2">
         <v>5</v>
       </c>
-      <c r="AG62" s="46"/>
+      <c r="AG62" s="59"/>
     </row>
     <row r="65" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB65"/>
@@ -8539,7 +8513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
@@ -10301,7 +10275,7 @@
       <c r="H72" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="I72" s="52"/>
+      <c r="I72" s="51"/>
       <c r="J72" s="9" t="s">
         <v>361</v>
       </c>
@@ -10323,22 +10297,22 @@
       <c r="B73" s="26">
         <v>4</v>
       </c>
-      <c r="C73" s="48">
+      <c r="C73" s="47">
         <v>19</v>
       </c>
-      <c r="D73" s="49">
+      <c r="D73" s="48">
         <v>20</v>
       </c>
-      <c r="E73" s="49">
+      <c r="E73" s="48">
         <v>21</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F73" s="46">
         <v>10</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="I73" s="54"/>
+      <c r="I73" s="53"/>
       <c r="J73" s="9" t="s">
         <v>363</v>
       </c>
@@ -10358,7 +10332,7 @@
       <c r="B74" s="26">
         <v>3</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="47">
         <v>18</v>
       </c>
       <c r="D74" s="36">
@@ -10367,13 +10341,13 @@
       <c r="E74" s="33">
         <v>22</v>
       </c>
-      <c r="F74" s="47">
+      <c r="F74" s="46">
         <v>11</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="I74" s="51"/>
+      <c r="I74" s="50"/>
       <c r="J74" s="9" t="s">
         <v>365</v>
       </c>
@@ -10399,22 +10373,22 @@
       <c r="B75" s="26">
         <v>2</v>
       </c>
-      <c r="C75" s="48">
+      <c r="C75" s="47">
         <v>17</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D75" s="49">
         <v>24</v>
       </c>
       <c r="E75" s="33">
         <v>23</v>
       </c>
-      <c r="F75" s="47">
+      <c r="F75" s="46">
         <v>12</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I75" s="55"/>
+      <c r="I75" s="54"/>
       <c r="J75" s="9" t="s">
         <v>367</v>
       </c>
@@ -10449,13 +10423,13 @@
       <c r="E76" s="28">
         <v>14</v>
       </c>
-      <c r="F76" s="47">
+      <c r="F76" s="46">
         <v>13</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="I76" s="56"/>
+      <c r="I76" s="55"/>
       <c r="J76" s="9" t="s">
         <v>369</v>
       </c>
@@ -10478,7 +10452,7 @@
       <c r="H77" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="I77" s="58"/>
+      <c r="I77" s="57"/>
       <c r="J77" s="9" t="s">
         <v>372</v>
       </c>
@@ -10501,7 +10475,7 @@
       <c r="H78" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="I78" s="59"/>
+      <c r="I78" s="58"/>
       <c r="J78" s="9" t="s">
         <v>373</v>
       </c>
@@ -10524,7 +10498,7 @@
       <c r="H79" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="I79" s="53"/>
+      <c r="I79" s="52"/>
       <c r="J79" s="9" t="s">
         <v>379</v>
       </c>
@@ -10541,7 +10515,7 @@
       <c r="H80" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="I80" s="57"/>
+      <c r="I80" s="56"/>
       <c r="J80" s="9" t="s">
         <v>376</v>
       </c>
@@ -10584,16 +10558,195 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F3:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="J5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="16"/>
+      <c r="J6" s="60" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="16"/>
+      <c r="J7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="16"/>
+      <c r="J9" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="K9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F10" s="16"/>
+      <c r="J10" s="61" t="s">
+        <v>392</v>
+      </c>
+      <c r="K10" t="s">
+        <v>393</v>
+      </c>
+      <c r="L10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F11" s="16"/>
+      <c r="K11" t="s">
+        <v>394</v>
+      </c>
+      <c r="L11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F16" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F17" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F18" s="16"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F19" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F20" s="16"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F21" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F22" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>402</v>
+      </c>
+      <c r="K28" t="s">
+        <v>403</v>
+      </c>
+      <c r="L28" t="s">
+        <v>404</v>
+      </c>
+      <c r="M28" t="s">
+        <v>406</v>
+      </c>
+      <c r="P28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="L29" t="s">
+        <v>405</v>
+      </c>
+      <c r="M29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/JS.xlsx
+++ b/JS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-11610" yWindow="600" windowWidth="17280" windowHeight="8970" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-11610" yWindow="600" windowWidth="17280" windowHeight="8970" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="문풀" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="2차원배열" sheetId="7" r:id="rId6"/>
     <sheet name="숫자찍기" sheetId="8" r:id="rId7"/>
     <sheet name="끝말잇기" sheetId="9" r:id="rId8"/>
+    <sheet name="끝말잇기2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -192,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="438">
   <si>
     <t>회전수 결정조건 : 처음, 끝, 일정한 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1731,6 +1732,116 @@
   </si>
   <si>
     <t>5. (비교 후) Ok?? Excellent!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝말잇기 Start</t>
+  </si>
+  <si>
+    <t>처음 한글 세 글자 단어를 입력하세요!!^^</t>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 입력없이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어의 글자 수가 맞지 않으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세 글자 단어만 입력하세요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 종료하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루프 재진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력글자 = 3글자 이면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적인 세 글자 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력단어 첫 글자 != 마지막 글자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok! 루프 재진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일하지 않으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 단어 첫말이 이전 단어 끝말과 달라요~ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력없이 확인 클릭, 단어 글자 수가 맞지 않으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 글자 단어만 입력하세요~~ 루프 재진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 끝내시겠습니까??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 개의 끝말잇기를 성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루프 재진입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글 세글자 단어 입력! 종료하려면 끝 (이전단어 : 000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1741,7 +1852,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1789,8 +1900,27 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1917,8 +2047,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1978,13 +2120,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2162,9 +2384,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2172,6 +2391,120 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7335,13 +7668,13 @@
       <c r="AD51" s="2">
         <v>3</v>
       </c>
-      <c r="AE51" s="59" t="s">
+      <c r="AE51" s="62" t="s">
         <v>201</v>
       </c>
       <c r="AF51" s="2">
         <v>3</v>
       </c>
-      <c r="AG51" s="59" t="s">
+      <c r="AG51" s="62" t="s">
         <v>198</v>
       </c>
       <c r="AI51" t="s">
@@ -7374,11 +7707,11 @@
       <c r="AD52" s="2">
         <v>2</v>
       </c>
-      <c r="AE52" s="59"/>
+      <c r="AE52" s="62"/>
       <c r="AF52" s="2">
         <v>4</v>
       </c>
-      <c r="AG52" s="59"/>
+      <c r="AG52" s="62"/>
       <c r="AI52" t="s">
         <v>203</v>
       </c>
@@ -7414,11 +7747,11 @@
       <c r="AD53" s="2">
         <v>1</v>
       </c>
-      <c r="AE53" s="59"/>
+      <c r="AE53" s="62"/>
       <c r="AF53" s="2">
         <v>5</v>
       </c>
-      <c r="AG53" s="59"/>
+      <c r="AG53" s="62"/>
       <c r="AI53" t="s">
         <v>204</v>
       </c>
@@ -7450,13 +7783,13 @@
       <c r="AD54" s="2">
         <v>2</v>
       </c>
-      <c r="AE54" s="59" t="s">
+      <c r="AE54" s="62" t="s">
         <v>199</v>
       </c>
       <c r="AF54" s="2">
         <v>4</v>
       </c>
-      <c r="AG54" s="59" t="s">
+      <c r="AG54" s="62" t="s">
         <v>200</v>
       </c>
       <c r="AK54" t="s">
@@ -7483,11 +7816,11 @@
       <c r="AD55" s="2">
         <v>3</v>
       </c>
-      <c r="AE55" s="59"/>
+      <c r="AE55" s="62"/>
       <c r="AF55" s="2">
         <v>3</v>
       </c>
-      <c r="AG55" s="59"/>
+      <c r="AG55" s="62"/>
     </row>
     <row r="57" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V57" s="4">
@@ -7558,13 +7891,13 @@
       <c r="AD58" s="2">
         <v>1</v>
       </c>
-      <c r="AE58" s="59" t="s">
+      <c r="AE58" s="62" t="s">
         <v>208</v>
       </c>
       <c r="AF58" s="2">
         <v>5</v>
       </c>
-      <c r="AG58" s="59" t="s">
+      <c r="AG58" s="62" t="s">
         <v>211</v>
       </c>
       <c r="AI58" t="s">
@@ -7594,11 +7927,11 @@
       <c r="AD59" s="2">
         <v>2</v>
       </c>
-      <c r="AE59" s="59"/>
+      <c r="AE59" s="62"/>
       <c r="AF59" s="2">
         <v>4</v>
       </c>
-      <c r="AG59" s="59"/>
+      <c r="AG59" s="62"/>
     </row>
     <row r="60" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V60" s="3">
@@ -7620,11 +7953,11 @@
       <c r="AD60" s="2">
         <v>3</v>
       </c>
-      <c r="AE60" s="59"/>
+      <c r="AE60" s="62"/>
       <c r="AF60" s="2">
         <v>3</v>
       </c>
-      <c r="AG60" s="59"/>
+      <c r="AG60" s="62"/>
     </row>
     <row r="61" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V61" s="3">
@@ -7650,13 +7983,13 @@
       <c r="AD61" s="2">
         <v>2</v>
       </c>
-      <c r="AE61" s="59" t="s">
+      <c r="AE61" s="62" t="s">
         <v>210</v>
       </c>
       <c r="AF61" s="2">
         <v>4</v>
       </c>
-      <c r="AG61" s="59" t="s">
+      <c r="AG61" s="62" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7688,11 +8021,11 @@
       <c r="AD62" s="2">
         <v>1</v>
       </c>
-      <c r="AE62" s="59"/>
+      <c r="AE62" s="62"/>
       <c r="AF62" s="2">
         <v>5</v>
       </c>
-      <c r="AG62" s="59"/>
+      <c r="AG62" s="62"/>
     </row>
     <row r="65" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB65"/>
@@ -10560,7 +10893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -10589,7 +10922,7 @@
     </row>
     <row r="6" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F6" s="16"/>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="59" t="s">
         <v>390</v>
       </c>
     </row>
@@ -10604,7 +10937,7 @@
     </row>
     <row r="9" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F9" s="16"/>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="60" t="s">
         <v>391</v>
       </c>
       <c r="K9" t="s">
@@ -10613,7 +10946,7 @@
     </row>
     <row r="10" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F10" s="16"/>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="60" t="s">
         <v>392</v>
       </c>
       <c r="K10" t="s">
@@ -10650,73 +10983,73 @@
       <c r="F16" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
     </row>
     <row r="17" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F17" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F18" s="16"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F19" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
     </row>
     <row r="20" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F20" s="16"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
     </row>
     <row r="21" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F21" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
     </row>
     <row r="22" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F22" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
     </row>
     <row r="23" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
     </row>
     <row r="24" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
     </row>
     <row r="25" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
     </row>
     <row r="26" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
     </row>
     <row r="28" spans="6:16" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
@@ -10749,4 +11082,579 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="76" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="78"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="78"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="79"/>
+      <c r="C9" s="80" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="78"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="79"/>
+      <c r="C10" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="78"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="78"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="68"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="81"/>
+      <c r="C14" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="81"/>
+      <c r="C16" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="81"/>
+      <c r="C18" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+    </row>
+    <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="66" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="66"/>
+      <c r="C23" s="66" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="68"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="88"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="86"/>
+      <c r="C28" s="93" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="94"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="86"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="86"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="94"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="86"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="86"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93" t="s">
+        <v>425</v>
+      </c>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="94"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="86"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93" t="s">
+        <v>426</v>
+      </c>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="86"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93" t="s">
+        <v>427</v>
+      </c>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="94"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="86"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93" t="s">
+        <v>428</v>
+      </c>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="94"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="86"/>
+      <c r="C36" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="96"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="86"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="96"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="86"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="96"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="86"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="96"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="86"/>
+      <c r="C40" s="97" t="s">
+        <v>402</v>
+      </c>
+      <c r="D40" s="97"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="99"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="86"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="99"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="86"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97" t="s">
+        <v>431</v>
+      </c>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="99"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="86"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="98" t="s">
+        <v>432</v>
+      </c>
+      <c r="F43" s="98"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="99"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="86"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98" t="s">
+        <v>433</v>
+      </c>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="99"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="86"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="99"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="86"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="98" t="s">
+        <v>435</v>
+      </c>
+      <c r="F46" s="98"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="99"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="86"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97" t="s">
+        <v>436</v>
+      </c>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="99"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="86"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="99"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="86"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="88"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="68"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="67"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="84" t="s">
+        <v>394</v>
+      </c>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="83"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="84"/>
+      <c r="C52" s="85" t="s">
+        <v>416</v>
+      </c>
+      <c r="D52" s="85"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="83"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="82"/>
+      <c r="I53" s="83"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="84"/>
+      <c r="C54" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" s="85"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="83"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="84"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85" t="s">
+        <v>418</v>
+      </c>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="82"/>
+      <c r="I55" s="83"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="84"/>
+      <c r="C56" s="85" t="s">
+        <v>394</v>
+      </c>
+      <c r="D56" s="85"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="83"/>
+    </row>
+    <row r="57" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="89"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90" t="s">
+        <v>419</v>
+      </c>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="92"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/JS.xlsx
+++ b/JS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KYR\Javascript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KYR\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-11610" yWindow="600" windowWidth="17280" windowHeight="8970" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="-11610" yWindow="600" windowWidth="17280" windowHeight="8970" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="문풀" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="숫자찍기" sheetId="8" r:id="rId7"/>
     <sheet name="끝말잇기" sheetId="9" r:id="rId8"/>
     <sheet name="끝말잇기2" sheetId="10" r:id="rId9"/>
+    <sheet name="이미지슬라이드" sheetId="12" r:id="rId10"/>
+    <sheet name="이미지슬라이드2" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -193,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="472">
   <si>
     <t>회전수 결정조건 : 처음, 끝, 일정한 규칙</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1842,6 +1844,142 @@
   </si>
   <si>
     <t>한글 세글자 단어 입력! 종료하려면 끝 (이전단어 : 000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재슬라이드 -100% 다음 슬라이드 -100% ~ 0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이저 2번을 클릭(예외상황: 순방향이 아닌 상황)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재슬라이드 -100% 다음 슬라이드 0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이저 5번을 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 슬라이드 &gt; 다음 슬라이드 (왼쪽 &gt; 오른쪽으로 이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재슬라이드 100% 다음 슬라이드 0% </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이저 1번을 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 슬라이드 &lt; 다음 슬라이드 (오른쪽 &gt; 왼쪽 이동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번은 -100%, 3번은 0% &gt; 현재 슬라이드 -100%, 다음 슬라이드 0% &gt; 규칙성 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이저 3번을 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재슬라이드 번호 &gt; 다음 슬라이드 번호(왼쪽에서 오른쪽으로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 그림 100% 다음 그림 -100%에서 0%로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재슬라이드 번호 &lt; 다음 슬라이드 번호(오른쪽에서 왼쪽으로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 그림 -100% 다음 그림 0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 슬라이드 -100%, 다음 슬라이드 100%에서 0%로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번에 있을 때 슬라이딩(예외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 슬라이드 번호 &gt; 다음 슬라이드 번호(오른쪽에서 왼쪽)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 슬라이드 100%, 다음 슬라이드 0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 버튼 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 슬라이드 번호 &gt; 다음 슬라이드 번호(왼쪽에서 오른쪽으로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 그림 100% 다음 그림 0 %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 슬라이드 번호 &lt; 다음 슬라이드 번호(왼쪽에서 오른쪽)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 슬라이드 -100%, 다음 슬라이드 0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림에 올렸을 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 버튼 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 슬라이드 번호 &lt; 다음 슬라이드 번호 (오른쪽에서 왼쪽으로)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양쪽 버튼 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2206,7 +2344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2393,9 +2531,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2506,6 +2641,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4127,6 +4268,6088 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="638175"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743201" y="638175"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="638175"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="628650"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="638175"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="504824"/>
+          <a:ext cx="1562100" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="3143250"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="3143250"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3143250"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="3143250"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="3143250"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="3009899"/>
+          <a:ext cx="1562100" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="5686425"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733676" y="5686425"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="5686425"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5676900"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="5686425"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="5562599"/>
+          <a:ext cx="1562100" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="8420100"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362076" y="8429625"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="8410575"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="8401050"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="8410575"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="8286749"/>
+          <a:ext cx="1562100" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="직사각형 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="10934700"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362076" y="10944225"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="10944225"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="10915650"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="10925175"/>
+          <a:ext cx="1371600" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="직사각형 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="10801349"/>
+          <a:ext cx="1562100" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1437084" y="322660"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>422672</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1472803" y="358378"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545556" y="364331"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3577828" y="364331"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494109</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4608909" y="364331"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5653087" y="364331"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1437084" y="3046810"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>392907</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29766</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="392907" y="3082528"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545556" y="3088481"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3577828" y="3088481"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101202</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>422671</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1472802" y="3088481"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5653087" y="3088481"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1437084" y="5770960"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="5806678"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545556" y="5812631"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3577828" y="5812631"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506015</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4620815" y="5812631"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5653087" y="5812631"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1437084" y="8704660"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398860</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398860" y="8734425"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2545556" y="8746331"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3577828" y="8746331"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506015</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4620815" y="8746331"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="8746331"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="직사각형 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1437084" y="11428810"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398860</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>5952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="직사각형 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398860" y="11458575"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="직사각형 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466849" y="11470481"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="직사각형 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3577828" y="11470481"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506015</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4620815" y="11470481"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>208359</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>529828</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>5951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="직사각형 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5694759" y="11458574"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="직사각형 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10352484" y="322660"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>422672</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="직사각형 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10388203" y="358378"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11460956" y="364331"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="직사각형 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12493228" y="364331"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>494109</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="직사각형 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13524309" y="364331"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="직사각형 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14568487" y="364331"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10352484" y="3046810"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>372299</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5036</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9287699" y="3089854"/>
+          <a:ext cx="1004337" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99829</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>425420</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10386829" y="3095808"/>
+          <a:ext cx="1011391" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12493228" y="3088481"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>494109</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="직사각형 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13524309" y="3088481"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14568487" y="3088481"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10352484" y="5561410"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>86548</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408017</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10373548" y="5611781"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488157</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>162108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125016</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11460957" y="5610408"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12493228" y="5603081"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>494109</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="직사각형 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13524309" y="5603081"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="직사각형 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14568487" y="5603081"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="직사각형 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20639484" y="322660"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>422672</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="직사각형 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20675203" y="358378"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21747956" y="364331"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="직사각형 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22780228" y="364331"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>494109</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="직사각형 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23811309" y="364331"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="직사각형 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24855487" y="364331"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="직사각형 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20639484" y="3046810"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342990</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>664460</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="직사각형 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19545390" y="3089855"/>
+          <a:ext cx="1007270" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>432745</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="직사각형 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20681156" y="3088481"/>
+          <a:ext cx="1011389" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="직사각형 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22780228" y="3088481"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>494109</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="직사각형 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23811309" y="3088481"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>162107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>488158</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="직사각형 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24855489" y="3095807"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>446484</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="직사각형 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20639484" y="5770960"/>
+          <a:ext cx="1066800" cy="1826418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>211106</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>532576</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="직사각형 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24899906" y="5806678"/>
+          <a:ext cx="1007270" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="직사각형 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21747956" y="5812631"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>470297</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22780228" y="5812631"/>
+          <a:ext cx="1007269" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>494109</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="직사각형 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23811309" y="5812631"/>
+          <a:ext cx="1008459" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>93419</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>414887</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="직사각형 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20667419" y="5827285"/>
+          <a:ext cx="1007268" cy="1749027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -5192,6 +11415,190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:N50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" t="s">
+        <v>446</v>
+      </c>
+      <c r="N14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="E25" t="s">
+        <v>443</v>
+      </c>
+      <c r="J25" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="E38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="H50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A1" s="100" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="N1" s="100" t="s">
+        <v>470</v>
+      </c>
+      <c r="O1" s="100"/>
+      <c r="AC1" s="100" t="s">
+        <v>469</v>
+      </c>
+      <c r="AD1" s="100"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B13" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" t="s">
+        <v>453</v>
+      </c>
+      <c r="H13" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="O14" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="P14" s="59"/>
+      <c r="R14" t="s">
+        <v>464</v>
+      </c>
+      <c r="W14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AD14" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AH14" t="s">
+        <v>464</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="B26" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D26" t="s">
+        <v>461</v>
+      </c>
+      <c r="H26" t="s">
+        <v>460</v>
+      </c>
+      <c r="O26" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="P26" s="59"/>
+      <c r="R26" t="s">
+        <v>458</v>
+      </c>
+      <c r="W26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
+      <c r="AD27" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AH27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="D40" t="s">
+        <v>453</v>
+      </c>
+      <c r="H40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="D53" t="s">
+        <v>450</v>
+      </c>
+      <c r="I53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="AC1:AD1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H18:M23"/>
@@ -7668,13 +14075,13 @@
       <c r="AD51" s="2">
         <v>3</v>
       </c>
-      <c r="AE51" s="62" t="s">
+      <c r="AE51" s="99" t="s">
         <v>201</v>
       </c>
       <c r="AF51" s="2">
         <v>3</v>
       </c>
-      <c r="AG51" s="62" t="s">
+      <c r="AG51" s="99" t="s">
         <v>198</v>
       </c>
       <c r="AI51" t="s">
@@ -7707,11 +14114,11 @@
       <c r="AD52" s="2">
         <v>2</v>
       </c>
-      <c r="AE52" s="62"/>
+      <c r="AE52" s="99"/>
       <c r="AF52" s="2">
         <v>4</v>
       </c>
-      <c r="AG52" s="62"/>
+      <c r="AG52" s="99"/>
       <c r="AI52" t="s">
         <v>203</v>
       </c>
@@ -7747,11 +14154,11 @@
       <c r="AD53" s="2">
         <v>1</v>
       </c>
-      <c r="AE53" s="62"/>
+      <c r="AE53" s="99"/>
       <c r="AF53" s="2">
         <v>5</v>
       </c>
-      <c r="AG53" s="62"/>
+      <c r="AG53" s="99"/>
       <c r="AI53" t="s">
         <v>204</v>
       </c>
@@ -7783,13 +14190,13 @@
       <c r="AD54" s="2">
         <v>2</v>
       </c>
-      <c r="AE54" s="62" t="s">
+      <c r="AE54" s="99" t="s">
         <v>199</v>
       </c>
       <c r="AF54" s="2">
         <v>4</v>
       </c>
-      <c r="AG54" s="62" t="s">
+      <c r="AG54" s="99" t="s">
         <v>200</v>
       </c>
       <c r="AK54" t="s">
@@ -7816,11 +14223,11 @@
       <c r="AD55" s="2">
         <v>3</v>
       </c>
-      <c r="AE55" s="62"/>
+      <c r="AE55" s="99"/>
       <c r="AF55" s="2">
         <v>3</v>
       </c>
-      <c r="AG55" s="62"/>
+      <c r="AG55" s="99"/>
     </row>
     <row r="57" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V57" s="4">
@@ -7891,13 +14298,13 @@
       <c r="AD58" s="2">
         <v>1</v>
       </c>
-      <c r="AE58" s="62" t="s">
+      <c r="AE58" s="99" t="s">
         <v>208</v>
       </c>
       <c r="AF58" s="2">
         <v>5</v>
       </c>
-      <c r="AG58" s="62" t="s">
+      <c r="AG58" s="99" t="s">
         <v>211</v>
       </c>
       <c r="AI58" t="s">
@@ -7927,11 +14334,11 @@
       <c r="AD59" s="2">
         <v>2</v>
       </c>
-      <c r="AE59" s="62"/>
+      <c r="AE59" s="99"/>
       <c r="AF59" s="2">
         <v>4</v>
       </c>
-      <c r="AG59" s="62"/>
+      <c r="AG59" s="99"/>
     </row>
     <row r="60" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V60" s="3">
@@ -7953,11 +14360,11 @@
       <c r="AD60" s="2">
         <v>3</v>
       </c>
-      <c r="AE60" s="62"/>
+      <c r="AE60" s="99"/>
       <c r="AF60" s="2">
         <v>3</v>
       </c>
-      <c r="AG60" s="62"/>
+      <c r="AG60" s="99"/>
     </row>
     <row r="61" spans="22:41" x14ac:dyDescent="0.3">
       <c r="V61" s="3">
@@ -7983,13 +14390,13 @@
       <c r="AD61" s="2">
         <v>2</v>
       </c>
-      <c r="AE61" s="62" t="s">
+      <c r="AE61" s="99" t="s">
         <v>210</v>
       </c>
       <c r="AF61" s="2">
         <v>4</v>
       </c>
-      <c r="AG61" s="62" t="s">
+      <c r="AG61" s="99" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8021,11 +14428,11 @@
       <c r="AD62" s="2">
         <v>1</v>
       </c>
-      <c r="AE62" s="62"/>
+      <c r="AE62" s="99"/>
       <c r="AF62" s="2">
         <v>5</v>
       </c>
-      <c r="AG62" s="62"/>
+      <c r="AG62" s="99"/>
     </row>
     <row r="65" spans="28:29" x14ac:dyDescent="0.3">
       <c r="AB65"/>
@@ -11088,569 +17495,569 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>410</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="65"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="64"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>411</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="79"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>412</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="79"/>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="79" t="s">
         <v>413</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="79" t="s">
         <v>414</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>415</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="77"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="68"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="81"/>
-      <c r="C14" s="82" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="81"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="81"/>
-      <c r="C16" s="82" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
         <v>417</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81" t="s">
         <v>418</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
-      <c r="C18" s="82" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81" t="s">
         <v>394</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81" t="s">
         <v>419</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
     </row>
     <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>420</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="66"/>
-      <c r="C23" s="66" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65" t="s">
         <v>421</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="67" t="s">
         <v>437</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="88"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="87"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="86"/>
-      <c r="C28" s="93" t="s">
+      <c r="B28" s="85"/>
+      <c r="C28" s="92" t="s">
         <v>423</v>
       </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="94"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="86"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="94"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="86"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93" t="s">
+      <c r="B30" s="85"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92" t="s">
         <v>424</v>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="94"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="86"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="94"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="86"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93" t="s">
+      <c r="B32" s="85"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92" t="s">
         <v>425</v>
       </c>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="86"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93" t="s">
+      <c r="B33" s="85"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92" t="s">
         <v>426</v>
       </c>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="94"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="86"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93" t="s">
+      <c r="B34" s="85"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="94"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="93"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="86"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93" t="s">
+      <c r="B35" s="85"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92" t="s">
         <v>428</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="94"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="93"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="86"/>
-      <c r="C36" s="95" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="94" t="s">
         <v>429</v>
       </c>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="96"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="95"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="86"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="96"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="95"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="86"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95" t="s">
+      <c r="B38" s="85"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94" t="s">
         <v>430</v>
       </c>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="96"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="95"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="86"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="96"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="95"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="86"/>
-      <c r="C40" s="97" t="s">
+      <c r="B40" s="85"/>
+      <c r="C40" s="96" t="s">
         <v>402</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="99"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="98"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="86"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="99"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="98"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="86"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97" t="s">
+      <c r="B42" s="85"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96" t="s">
         <v>431</v>
       </c>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="99"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="98"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="86"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="98" t="s">
+      <c r="B43" s="85"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="97" t="s">
         <v>432</v>
       </c>
-      <c r="F43" s="98"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="99"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="98"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="86"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98" t="s">
+      <c r="B44" s="85"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="99"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="98"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="86"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98" t="s">
+      <c r="B45" s="85"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="99"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="98"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="86"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="98" t="s">
+      <c r="B46" s="85"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="97" t="s">
         <v>435</v>
       </c>
-      <c r="F46" s="98"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="99"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="98"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="86"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97" t="s">
+      <c r="B47" s="85"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="99"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="98"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="86"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="99"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="98"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="86"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="88"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="87"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="68"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="66"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="82"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="84"/>
-      <c r="C52" s="85" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="84" t="s">
         <v>416</v>
       </c>
-      <c r="D52" s="85"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="82"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="84"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="83"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="82"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="84"/>
-      <c r="C54" s="85" t="s">
+      <c r="B54" s="83"/>
+      <c r="C54" s="84" t="s">
         <v>417</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="83"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="82"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="84"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85" t="s">
+      <c r="B55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84" t="s">
         <v>418</v>
       </c>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="83"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="82"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="84"/>
-      <c r="C56" s="85" t="s">
+      <c r="B56" s="83"/>
+      <c r="C56" s="84" t="s">
         <v>394</v>
       </c>
-      <c r="D56" s="85"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="82"/>
     </row>
     <row r="57" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="89"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90" t="s">
+      <c r="B57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89" t="s">
         <v>419</v>
       </c>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="92"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
